--- a/biology/Médecine/Charles-Émile_Troisier/Charles-Émile_Troisier.xlsx
+++ b/biology/Médecine/Charles-Émile_Troisier/Charles-Émile_Troisier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles-%C3%89mile_Troisier</t>
+          <t>Charles-Émile_Troisier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Émile Troisier (né le 6 avril 1844 à Sévigny-Waleppe et mort le 11 décembre 1919), à Paris,  est professeur agrégé de la Faculté de Médecine de Paris, médecin des hôpitaux.
 Charles Émile Troisier devient docteur en médecine (Paris, 1874), puis professeur à la Faculté de médecine de Paris et membre de l'Académie de médecine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles-%C3%89mile_Troisier</t>
+          <t>Charles-Émile_Troisier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa mère est Marie-Louise Adeline Marache et son père, Antoine Édouard Troisier, officier de santé à Sévigny.
-Ancien élève du lycée et de l'École de médecine de Reims,Troisier avait été nommé médecin des hôpitaux de Paris et professeur agrégé à la Faculté de Médecine en 1880, dans la même promotion que Louis Landouzy. Il était aussi membre de l'académie de médecine[1].
-On lui prête une relation avec Marie Bonaparte[2].
+Ancien élève du lycée et de l'École de médecine de Reims,Troisier avait été nommé médecin des hôpitaux de Paris et professeur agrégé à la Faculté de Médecine en 1880, dans la même promotion que Louis Landouzy. Il était aussi membre de l'académie de médecine.
+On lui prête une relation avec Marie Bonaparte.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles-%C3%89mile_Troisier</t>
+          <t>Charles-Émile_Troisier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il a laissé de nombreuses publications médicales ; un ganglion dont l'induration est symptomatique du cancer de l'estomac, porte son nom, Il décrivit notamment :
 Le ganglion de Troisier, un ganglion pathologique situé au-dessus de la clavicule gauche, pouvant être le signe d'un cancer de la cavité abdominale.
-Le syndrome de Hanot-Chauffard-Troisier, une anomalie du métabolisme du fer[3].</t>
+Le syndrome de Hanot-Chauffard-Troisier, une anomalie du métabolisme du fer.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charles-%C3%89mile_Troisier</t>
+          <t>Charles-Émile_Troisier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur[4]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur</t>
         </is>
       </c>
     </row>
